--- a/inputs/master_templates/30_playoff.xlsx
+++ b/inputs/master_templates/30_playoff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorprieto/Desktop/code/cornerstone/inputs/master_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7C6539-6D17-5C4F-A457-C5CF76C517F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E9A38C-389A-374B-B9B7-A4331A42C580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{2114AE23-4723-3F48-88AE-F53CC59B0CBE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{2114AE23-4723-3F48-88AE-F53CC59B0CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="tournament format" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
   <si>
     <t>Team</t>
   </si>
@@ -318,12 +318,6 @@
     <t>Playoff Bracket Names</t>
   </si>
   <si>
-    <t>Championship Bracket A</t>
-  </si>
-  <si>
-    <t>Championship Bracket B</t>
-  </si>
-  <si>
     <t>13th - 18th</t>
   </si>
   <si>
@@ -367,6 +361,114 @@
   </si>
   <si>
     <t>Caption</t>
+  </si>
+  <si>
+    <t>This is the placeholder text for the playoff schedule individualized for each team. Useful pieces of information to include in this section are: where to go after the last round is over, champion determination procedure, paper copies of the question set, expected time for final statistics, thank-you note...</t>
+  </si>
+  <si>
+    <t>This is the placeholder text for the playoff schedule individualized for each room. Useful pieces of information to include in this section are: what to do with the buzzer and room clean-up after the last round, tiebreaker/protest procedure (perhaps "refer to prelim schedule"), thank-you note...</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>TA1</t>
+  </si>
+  <si>
+    <t>TA2</t>
+  </si>
+  <si>
+    <t>TA3</t>
+  </si>
+  <si>
+    <t>TA4</t>
+  </si>
+  <si>
+    <t>TA5</t>
+  </si>
+  <si>
+    <t>TA6</t>
+  </si>
+  <si>
+    <t>TB1</t>
+  </si>
+  <si>
+    <t>TB2</t>
+  </si>
+  <si>
+    <t>TB3</t>
+  </si>
+  <si>
+    <t>TB4</t>
+  </si>
+  <si>
+    <t>TB5</t>
+  </si>
+  <si>
+    <t>TB6</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TD1</t>
+  </si>
+  <si>
+    <t>TD2</t>
+  </si>
+  <si>
+    <t>TD3</t>
+  </si>
+  <si>
+    <t>TD4</t>
+  </si>
+  <si>
+    <t>TD5</t>
+  </si>
+  <si>
+    <t>TD6</t>
+  </si>
+  <si>
+    <t>TE1</t>
+  </si>
+  <si>
+    <t>TE2</t>
+  </si>
+  <si>
+    <t>TE3</t>
+  </si>
+  <si>
+    <t>TE4</t>
+  </si>
+  <si>
+    <t>TE5</t>
+  </si>
+  <si>
+    <t>TE6</t>
+  </si>
+  <si>
+    <t>Championship A</t>
+  </si>
+  <si>
+    <t>Championship B</t>
   </si>
 </sst>
 </file>
@@ -376,7 +478,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -415,12 +517,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="ArialMT"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF3F3F3F"/>
@@ -435,7 +531,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,12 +552,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -586,7 +676,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -646,23 +736,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -982,9 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DE5B6E-5562-4B4B-9B01-3722A29F012F}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
@@ -1050,13 +1135,13 @@
     </row>
     <row r="6" spans="1:3" ht="40" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="40" customHeight="1">
@@ -1155,483 +1240,577 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0CB595-5535-8C4C-9710-F68F5657C36B}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView zoomScale="119" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="28.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>98</v>
-      </c>
       <c r="D1" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="str">
+      <c r="B2" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="18" t="str">
         <f>'group names'!A$2</f>
         <v>Group A</v>
       </c>
-      <c r="C2" s="14">
+      <c r="D2" s="14">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16" t="str">
+      <c r="B3" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="16" t="str">
         <f>'group names'!A$2</f>
         <v>Group A</v>
       </c>
-      <c r="C3" s="19">
+      <c r="D3" s="19">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="str">
+      <c r="B4" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="13" t="str">
         <f>'group names'!A$2</f>
         <v>Group A</v>
       </c>
-      <c r="C4" s="20">
+      <c r="D4" s="20">
         <v>3</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13" t="str">
+      <c r="B5" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="13" t="str">
         <f>'group names'!A$2</f>
         <v>Group A</v>
       </c>
-      <c r="C5" s="20">
+      <c r="D5" s="20">
         <v>4</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="str">
+      <c r="B6" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="13" t="str">
         <f>'group names'!A$2</f>
         <v>Group A</v>
       </c>
-      <c r="C6" s="20">
+      <c r="D6" s="20">
         <v>5</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="str">
+      <c r="B7" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="13" t="str">
         <f>'group names'!A$2</f>
         <v>Group A</v>
       </c>
-      <c r="C7" s="20">
+      <c r="D7" s="20">
         <v>6</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13" t="str">
+      <c r="B8" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="13" t="str">
         <f>'group names'!A$3</f>
         <v>Group B</v>
       </c>
-      <c r="C8" s="20">
+      <c r="D8" s="20">
         <v>1</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="13" t="str">
+      <c r="B9" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="13" t="str">
         <f>'group names'!A$3</f>
         <v>Group B</v>
       </c>
-      <c r="C9" s="20">
+      <c r="D9" s="20">
         <v>2</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="13" t="str">
+      <c r="B10" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="13" t="str">
         <f>'group names'!A$3</f>
         <v>Group B</v>
       </c>
-      <c r="C10" s="20">
+      <c r="D10" s="20">
         <v>3</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13" t="str">
+      <c r="B11" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="13" t="str">
         <f>'group names'!A$3</f>
         <v>Group B</v>
       </c>
-      <c r="C11" s="20">
+      <c r="D11" s="20">
         <v>4</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="13" t="str">
+      <c r="B12" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="13" t="str">
         <f>'group names'!A$3</f>
         <v>Group B</v>
       </c>
-      <c r="C12" s="20">
+      <c r="D12" s="20">
         <v>5</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="13" t="str">
+      <c r="B13" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="13" t="str">
         <f>'group names'!A$3</f>
         <v>Group B</v>
       </c>
-      <c r="C13" s="20">
+      <c r="D13" s="20">
         <v>6</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="13" t="str">
+      <c r="B14" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="13" t="str">
         <f>'group names'!A$4</f>
         <v>Group C</v>
       </c>
-      <c r="C14" s="20">
+      <c r="D14" s="20">
         <v>1</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="13" t="str">
+      <c r="B15" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="13" t="str">
         <f>'group names'!A$4</f>
         <v>Group C</v>
       </c>
-      <c r="C15" s="20">
+      <c r="D15" s="20">
         <v>2</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="13" t="str">
+      <c r="B16" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="13" t="str">
         <f>'group names'!A$4</f>
         <v>Group C</v>
       </c>
-      <c r="C16" s="20">
+      <c r="D16" s="20">
         <v>3</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="13" t="str">
+      <c r="B17" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="13" t="str">
         <f>'group names'!A$4</f>
         <v>Group C</v>
       </c>
-      <c r="C17" s="20">
+      <c r="D17" s="20">
         <v>4</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="13" t="str">
+      <c r="B18" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="13" t="str">
         <f>'group names'!A$4</f>
         <v>Group C</v>
       </c>
-      <c r="C18" s="20">
+      <c r="D18" s="20">
         <v>5</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="13" t="str">
+      <c r="B19" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="13" t="str">
         <f>'group names'!A$4</f>
         <v>Group C</v>
       </c>
-      <c r="C19" s="20">
+      <c r="D19" s="20">
         <v>6</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="13" t="str">
+      <c r="B20" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="13" t="str">
         <f>'group names'!A$5</f>
         <v>Group D</v>
       </c>
-      <c r="C20" s="20">
+      <c r="D20" s="20">
         <v>1</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="13" t="str">
+      <c r="B21" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="13" t="str">
         <f>'group names'!A$5</f>
         <v>Group D</v>
       </c>
-      <c r="C21" s="20">
+      <c r="D21" s="20">
         <v>2</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="13" t="str">
+      <c r="B22" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="13" t="str">
         <f>'group names'!A$5</f>
         <v>Group D</v>
       </c>
-      <c r="C22" s="20">
+      <c r="D22" s="20">
         <v>3</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="13" t="str">
+      <c r="B23" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="13" t="str">
         <f>'group names'!A$5</f>
         <v>Group D</v>
       </c>
-      <c r="C23" s="20">
+      <c r="D23" s="20">
         <v>4</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="13" t="str">
+      <c r="B24" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="13" t="str">
         <f>'group names'!A$5</f>
         <v>Group D</v>
       </c>
-      <c r="C24" s="20">
+      <c r="D24" s="20">
         <v>5</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="13" t="str">
+      <c r="B25" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="13" t="str">
         <f>'group names'!A$5</f>
         <v>Group D</v>
       </c>
-      <c r="C25" s="20">
+      <c r="D25" s="20">
         <v>6</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="13" t="str">
+      <c r="B26" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="13" t="str">
         <f>'group names'!A$6</f>
         <v>Group E</v>
       </c>
-      <c r="C26" s="20">
+      <c r="D26" s="20">
         <v>1</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="13" t="str">
+      <c r="B27" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="13" t="str">
         <f>'group names'!A$6</f>
         <v>Group E</v>
       </c>
-      <c r="C27" s="20">
+      <c r="D27" s="20">
         <v>2</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="13" t="str">
+      <c r="B28" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="13" t="str">
         <f>'group names'!A$6</f>
         <v>Group E</v>
       </c>
-      <c r="C28" s="20">
+      <c r="D28" s="20">
         <v>3</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="13" t="str">
+      <c r="B29" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="13" t="str">
         <f>'group names'!A$6</f>
         <v>Group E</v>
       </c>
-      <c r="C29" s="20">
+      <c r="D29" s="20">
         <v>4</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="13" t="str">
+      <c r="B30" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="13" t="str">
         <f>'group names'!A$6</f>
         <v>Group E</v>
       </c>
-      <c r="C30" s="20">
+      <c r="D30" s="20">
         <v>5</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="13" t="str">
+      <c r="B31" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="13" t="str">
         <f>'group names'!A$6</f>
         <v>Group E</v>
       </c>
-      <c r="C31" s="20">
+      <c r="D31" s="20">
         <v>6</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>100</v>
+      <c r="E31" s="25" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1646,7 +1825,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView zoomScale="244" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
@@ -1668,7 +1847,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="36" customHeight="1">
@@ -1676,7 +1855,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="36" customHeight="1">
@@ -1684,7 +1863,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="36" customHeight="1">
@@ -1692,7 +1871,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="36" customHeight="1">
@@ -1700,7 +1879,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1736,9 +1915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B02CA44-6EE3-1E45-A0FA-E7B275D443B3}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView zoomScale="184" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
@@ -1752,86 +1929,86 @@
         <v>42</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>'group names'!B$2</f>
-        <v>Championship Bracket A</v>
+        <v>Championship A</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="4" t="str">
         <f>'group names'!B$2</f>
-        <v>Championship Bracket A</v>
+        <v>Championship A</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>'group names'!B$2</f>
-        <v>Championship Bracket A</v>
+        <v>Championship A</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="4" t="str">
         <f>'group names'!B$3</f>
-        <v>Championship Bracket B</v>
+        <v>Championship B</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="4" t="str">
         <f>'group names'!B$3</f>
-        <v>Championship Bracket B</v>
+        <v>Championship B</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>'group names'!B$3</f>
-        <v>Championship Bracket B</v>
+        <v>Championship B</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="4" t="str">
@@ -1843,7 +2020,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="4" t="str">
@@ -1855,7 +2032,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="4" t="str">
@@ -1867,7 +2044,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="4" t="str">
@@ -1879,7 +2056,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="4" t="str">
@@ -1891,7 +2068,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="23" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="4" t="str">
@@ -1903,7 +2080,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="4" t="str">
@@ -1915,7 +2092,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="4" t="str">
@@ -1927,7 +2104,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="4" t="str">
@@ -1949,9 +2126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10058E87-174A-E14F-9AEE-7ACFACE9B5BB}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="184" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView zoomScale="184" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
@@ -1963,24 +2138,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>105</v>
+      <c r="B2" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>61</v>
@@ -1993,8 +2168,8 @@
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>105</v>
+      <c r="B3" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>62</v>
@@ -2007,8 +2182,8 @@
       <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>105</v>
+      <c r="B4" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>63</v>
@@ -2021,8 +2196,8 @@
       <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>106</v>
+      <c r="B5" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>64</v>
@@ -2035,8 +2210,8 @@
       <c r="A6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>106</v>
+      <c r="B6" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>65</v>
@@ -2049,8 +2224,8 @@
       <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>106</v>
+      <c r="B7" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>66</v>
@@ -2070,9 +2245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3F142A-4698-834F-8261-DB2006E5DBFB}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="184" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
-    </sheetView>
+    <sheetView zoomScale="184" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
@@ -2080,30 +2253,28 @@
     <col min="2" max="2" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:2" ht="40" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="160" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="160" customHeight="1">
+      <c r="A3" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="24" t="str">
-        <f t="shared" ref="B2:B3" si="0">"Text to insert in "&amp;A2</f>
-        <v>Text to insert in Individualized Team Playoff Schedule</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>Text to insert in Individualized Room Playoff Schedule</v>
+      <c r="B3" s="24" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
